--- a/Module 11 - Inventories.xlsx
+++ b/Module 11 - Inventories.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/FINREP Class Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{95B8C057-F298-40C7-AFD0-1ECA6BF78C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8640E84B-1A79-4162-8320-376C431D3E25}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{95B8C057-F298-40C7-AFD0-1ECA6BF78C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2FC5A5E-AAE0-4854-AA07-1C5832B909A7}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16200" windowHeight="9510" activeTab="1" xr2:uid="{A41F7C7B-6B09-4814-BF57-AC2AC38DD49A}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28800" windowHeight="14370" xr2:uid="{A41F7C7B-6B09-4814-BF57-AC2AC38DD49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="FIFO AVCO" sheetId="15" r:id="rId2"/>
-    <sheet name="Module 11" sheetId="2" r:id="rId3"/>
+    <sheet name="Module 11" sheetId="2" r:id="rId2"/>
+    <sheet name="FIFO AVCO" sheetId="15" r:id="rId3"/>
     <sheet name="WSE11.1" sheetId="4" r:id="rId4"/>
     <sheet name="WSE11.2" sheetId="8" r:id="rId5"/>
     <sheet name="WSE11.3" sheetId="9" r:id="rId6"/>
@@ -24,6 +24,7 @@
     <sheet name="WSE11.6" sheetId="12" r:id="rId9"/>
     <sheet name="WSE11.7" sheetId="13" r:id="rId10"/>
     <sheet name="WSE11.8" sheetId="14" r:id="rId11"/>
+    <sheet name="BlockMock2" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="449">
   <si>
     <t>Module 11</t>
   </si>
@@ -1292,6 +1293,129 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;Watch out for cut off dates</t>
+  </si>
+  <si>
+    <t>transport cost</t>
+  </si>
+  <si>
+    <t>cost of bringing to current locatoin and conditio</t>
+  </si>
+  <si>
+    <t>less: removal of leaflet</t>
+  </si>
+  <si>
+    <t>printing new leaflet</t>
+  </si>
+  <si>
+    <t>repackagin</t>
+  </si>
+  <si>
+    <t>lower of cost and nrv</t>
+  </si>
+  <si>
+    <t>current carry value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase </t>
+  </si>
+  <si>
+    <t>dr - inventories</t>
+  </si>
+  <si>
+    <t>cr - SPL cost of sales</t>
+  </si>
+  <si>
+    <t>being adjustment to inventories</t>
+  </si>
+  <si>
+    <t>Cough medicine</t>
+  </si>
+  <si>
+    <t>Standard cost per unti</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>fav</t>
+  </si>
+  <si>
+    <t>Estimated actual cost</t>
+  </si>
+  <si>
+    <t>Selling prive</t>
+  </si>
+  <si>
+    <t>less: Sales and marketing</t>
+  </si>
+  <si>
+    <t>Inventories at standard cost</t>
+  </si>
+  <si>
+    <t>Inventoirs at NRV (lower than cost)</t>
+  </si>
+  <si>
+    <t>Reduction required</t>
+  </si>
+  <si>
+    <t>dr - Spl COS</t>
+  </si>
+  <si>
+    <t>cr - invenotry</t>
+  </si>
+  <si>
+    <t>being adjustments ot inventories</t>
+  </si>
+  <si>
+    <t>units per month</t>
+  </si>
+  <si>
+    <t>standard cost per unti</t>
+  </si>
+  <si>
+    <t>closing stock</t>
+  </si>
+  <si>
+    <t>Standard cost</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Prod o/h</t>
+  </si>
+  <si>
+    <t>Variances</t>
+  </si>
+  <si>
+    <t>units affected</t>
+  </si>
+  <si>
+    <t>normal adverse</t>
+  </si>
+  <si>
+    <t>June 2021 - totallly irrelevant</t>
+  </si>
+  <si>
+    <t>cheaper</t>
+  </si>
+  <si>
+    <t>favourable per unit</t>
+  </si>
+  <si>
+    <t>normal expense</t>
+  </si>
+  <si>
+    <t>P o/h</t>
+  </si>
+  <si>
+    <t>Pain Relief</t>
+  </si>
+  <si>
+    <t>BlockMock2</t>
   </si>
 </sst>
 </file>
@@ -1301,9 +1425,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="172" formatCode="&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;£&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1346,6 +1470,14 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1415,7 +1547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1466,11 +1598,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1786,58 +1919,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2628F35-DCE9-4E08-B1FC-0D5B407EFFCB}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>320</v>
       </c>
@@ -1853,6 +1990,7 @@
     <hyperlink ref="C7" location="WSE11.6!A1" display="WSE11.6" xr:uid="{C91759EF-5189-4D83-B0AD-1760C87E665A}"/>
     <hyperlink ref="C8" location="WSE11.7!A1" display="WSE11.7" xr:uid="{0FBD72AD-FF1F-471A-B125-7A50717A993A}"/>
     <hyperlink ref="C9" location="WSE11.8!A1" display="WSE11.8" xr:uid="{012E54B9-0539-43D6-8062-7A0D04F12DC3}"/>
+    <hyperlink ref="D2" location="BlockMock2!A1" display="BlockMock2" xr:uid="{FA050EA6-712B-4F86-9D17-52FD4CA6C99B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3492,11 +3630,1703 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32AE7B6-A816-491B-B274-BD83A733AAED}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM(C5:C6)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <f>SUM(C10:C13)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="1">
+        <f>+C7</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="1">
+        <f>+C16-C17</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E20" s="1">
+        <f>+C18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" s="1">
+        <f>+E20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="11">
+        <f>+C67</f>
+        <v>1.8628912071535022E-2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="11">
+        <f>-+C72</f>
+        <v>-5.5239898989898992E-2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="11">
+        <f>-+C77</f>
+        <v>-4.29430289149728E-2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" s="32">
+        <f>SUM(D27:D31)</f>
+        <v>0.87044598416666319</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D36" s="11">
+        <f>-C81</f>
+        <v>-0.22187231606069283</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="32">
+        <f>SUM(D35:D36)</f>
+        <v>0.85812768393930727</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6">
+        <f>+C54*C60</f>
+        <v>71.25</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <f>+C54*D37</f>
+        <v>64.359576295448051</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <f>+E40-E39</f>
+        <v>-6.8904237045519494</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <f>-E41</f>
+        <v>6.8904237045519494</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <f>+E43</f>
+        <v>6.8904237045519494</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="4">
+        <v>44805</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>44834</v>
+      </c>
+      <c r="C48" s="6">
+        <v>40</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>44865</v>
+      </c>
+      <c r="C49" s="6">
+        <v>48</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>44895</v>
+      </c>
+      <c r="C50" s="6">
+        <v>57.6</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>44926</v>
+      </c>
+      <c r="C51" s="6">
+        <v>69.12</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="9">
+        <f>SUM(C48:C51)</f>
+        <v>214.72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C54" s="1">
+        <v>75</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="3">
+        <f>SUM(C57:C59)</f>
+        <v>0.95</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C66" s="6">
+        <f>+C52</f>
+        <v>214.72</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <f>4/C66</f>
+        <v>1.8628912071535022E-2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" s="6">
+        <f>SUM(C50:C51)</f>
+        <v>126.72</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="1">
+        <f>7/C71</f>
+        <v>5.5239898989898992E-2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="6">
+        <f>+(C52-C54)</f>
+        <v>139.72</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="11">
+        <f>+C75/C76</f>
+        <v>4.29430289149728E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="6">
+        <f>+(C52-C54)</f>
+        <v>139.72</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="11">
+        <f>+C79/C80</f>
+        <v>0.22187231606069283</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{44DA769B-E44C-4599-9B79-79A69728F874}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909F1FA-A156-444F-9C7A-CF37AA469AA2}">
+  <dimension ref="A1:H136"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1">
+        <f>+C7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>250</v>
+      </c>
+      <c r="E8" s="1">
+        <f>+C8</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>300</v>
+      </c>
+      <c r="D9" s="1">
+        <v>210</v>
+      </c>
+      <c r="E9" s="1">
+        <f>+D9</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>400</v>
+      </c>
+      <c r="D10" s="1">
+        <v>600</v>
+      </c>
+      <c r="E10" s="1">
+        <f>+C10</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f>SUM(C7:C10)</f>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(D7:D10)</f>
+        <v>1200</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SUM(E7:E10)</f>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>200</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6">
+        <v>800000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6">
+        <v>550</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <f>+C22/C21</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6">
+        <f>+C19</f>
+        <v>200</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6">
+        <f>+C20/C21</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6">
+        <f>SUM(C28:C29)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6">
+        <f>+C30</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6">
+        <f>+C23</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="6">
+        <f>+C33*C34</f>
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="6">
+        <f>+C28</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <f>+C20/11200</f>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="6">
+        <f>SUM(C42:C43)</f>
+        <v>271.42857142857144</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="6">
+        <f>+C44</f>
+        <v>271.42857142857144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="6">
+        <f>+C34</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="6">
+        <f>+C46*C47</f>
+        <v>149285.71428571429</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="4">
+        <v>46599</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="6">
+        <v>103000</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4000</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="6">
+        <f>0.6*36000</f>
+        <v>21600</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="6">
+        <f>0.4*36000</f>
+        <v>14400</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="6">
+        <v>950</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1850</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="8">
+        <v>50</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="8">
+        <v>2300</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1650</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="6">
+        <f>SUM(C54:C56,C58,C60,)</f>
+        <v>131400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="6">
+        <f>+C57+C59</f>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="6">
+        <v>240000</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="5">
+        <f>+C70/C69</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="6">
+        <f>+C67</f>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="6">
+        <f>+C69</f>
+        <v>300000</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="12">
+        <f>+C73/C74</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="6">
+        <f>+C66</f>
+        <v>131400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="6">
+        <f>+C70*C75</f>
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="9">
+        <f>SUM(C76:C77)</f>
+        <v>143880</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C82" s="5">
+        <f>+C71</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="6">
+        <f>+C76</f>
+        <v>131400</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="1">
+        <f>+C82*C67</f>
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="9">
+        <f>SUM(C83:C84)</f>
+        <v>143880</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="6">
+        <f>+C85</f>
+        <v>143880</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="6">
+        <f>+C70</f>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="13">
+        <f>+C87/C88</f>
+        <v>0.59950000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="1">
+        <v>50</v>
+      </c>
+      <c r="D95" s="6">
+        <f>+C95*$C$106</f>
+        <v>600000</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-120000</v>
+      </c>
+      <c r="F95" s="6">
+        <f>SUM(D95:E95)</f>
+        <v>480000</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="1">
+        <v>200</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" ref="D96:D99" si="0">+C96*$C$106</f>
+        <v>2400000</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" ref="F96:F97" si="1">SUM(D96:E96)</f>
+        <v>2400000</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="1">
+        <v>40</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="0"/>
+        <v>480000</v>
+      </c>
+      <c r="E97" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="1"/>
+        <v>540000</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="1">
+        <v>60</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="0"/>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="10">
+        <v>20</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C100" s="1">
+        <f>SUM(C95:C99)</f>
+        <v>370</v>
+      </c>
+      <c r="D100" s="6">
+        <f>SUM(D95:D99)</f>
+        <v>4440000</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="4">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109" s="6">
+        <f>+C100</f>
+        <v>370</v>
+      </c>
+      <c r="E109" s="6">
+        <f>+D109*C105</f>
+        <v>740000</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="6">
+        <f>-C99</f>
+        <v>-20</v>
+      </c>
+      <c r="E110" s="6">
+        <f>+D110*C105</f>
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111" s="6">
+        <f>SUM(D109:D110)</f>
+        <v>350</v>
+      </c>
+      <c r="E111" s="6">
+        <f>SUM(E109:E110)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="6">
+        <f>+E95/C106</f>
+        <v>-10</v>
+      </c>
+      <c r="E112" s="6">
+        <f>+D112*C105</f>
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="6">
+        <f>+E97/(C106*4/12)</f>
+        <v>15</v>
+      </c>
+      <c r="E113" s="6">
+        <f>+E97*(C105/4000)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" s="6">
+        <f>SUM(D111:D113)</f>
+        <v>355</v>
+      </c>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="22">
+        <f>+D114*C105</f>
+        <v>710000</v>
+      </c>
+      <c r="E115" s="22">
+        <f>SUM(E109:E114)</f>
+        <v>1410000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D117" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" s="23"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="6">
+        <f>-0.06*C121</f>
+        <v>-49.199999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="6">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="9">
+        <f>SUM(C121:C123)</f>
+        <v>555.79999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F125" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E127" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F128" s="5">
+        <v>-0.94</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D130" s="6">
+        <v>415</v>
+      </c>
+      <c r="E130" s="6">
+        <v>580</v>
+      </c>
+      <c r="F130" s="6">
+        <v>545</v>
+      </c>
+      <c r="G130" s="6">
+        <v>415</v>
+      </c>
+      <c r="H130" s="6">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="6">
+        <v>610</v>
+      </c>
+      <c r="D131" s="6">
+        <v>148</v>
+      </c>
+      <c r="E131" s="6">
+        <v>150</v>
+      </c>
+      <c r="F131" s="6">
+        <v>141</v>
+      </c>
+      <c r="G131" s="6">
+        <v>141</v>
+      </c>
+      <c r="H131" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="6">
+        <v>200</v>
+      </c>
+      <c r="D132" s="6">
+        <v>720</v>
+      </c>
+      <c r="E132" s="6">
+        <v>810</v>
+      </c>
+      <c r="F132" s="6">
+        <v>761</v>
+      </c>
+      <c r="G132" s="6">
+        <v>720</v>
+      </c>
+      <c r="H132" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="6">
+        <v>416</v>
+      </c>
+      <c r="D133" s="6">
+        <v>500</v>
+      </c>
+      <c r="E133" s="6">
+        <f>+C121</f>
+        <v>820</v>
+      </c>
+      <c r="F133" s="6">
+        <f>+C124</f>
+        <v>555.79999999999995</v>
+      </c>
+      <c r="G133" s="6">
+        <v>500</v>
+      </c>
+      <c r="H133" s="6">
+        <f>+C133*D133/1000</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="6">
+        <v>508</v>
+      </c>
+      <c r="D134" s="6">
+        <v>930</v>
+      </c>
+      <c r="E134" s="6">
+        <v>1400</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1316</v>
+      </c>
+      <c r="G134" s="6">
+        <v>930</v>
+      </c>
+      <c r="H134" s="6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="9">
+        <f>SUM(H130:H134)</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{316B2F69-1117-4AE1-988A-6A1051710F47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC94F50-7407-4CEA-ACDF-E18E31F2F24E}">
   <dimension ref="B2:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:I33"/>
     </sheetView>
   </sheetViews>
@@ -3792,7 +5622,7 @@
         <v>3200</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" ref="F15:I15" si="8">SUM(G7:G14)</f>
+        <f t="shared" ref="G15:I15" si="8">SUM(G7:G14)</f>
         <v>12300</v>
       </c>
       <c r="H15" s="49">
@@ -3901,1159 +5731,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909F1FA-A156-444F-9C7A-CF37AA469AA2}">
-  <dimension ref="A1:H136"/>
-  <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:F115"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>100</v>
-      </c>
-      <c r="D7" s="1">
-        <v>140</v>
-      </c>
-      <c r="E7" s="1">
-        <f>+C7</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>200</v>
-      </c>
-      <c r="D8" s="1">
-        <v>250</v>
-      </c>
-      <c r="E8" s="1">
-        <f>+C8</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>300</v>
-      </c>
-      <c r="D9" s="1">
-        <v>210</v>
-      </c>
-      <c r="E9" s="1">
-        <f>+D9</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>600</v>
-      </c>
-      <c r="E10" s="1">
-        <f>+C10</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <f>SUM(C7:C10)</f>
-        <v>1000</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(D7:D10)</f>
-        <v>1200</v>
-      </c>
-      <c r="E11" s="3">
-        <f>SUM(E7:E10)</f>
-        <v>910</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6">
-        <v>200</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6">
-        <v>800000</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6">
-        <v>8000</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6">
-        <v>550</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5">
-        <f>+C22/C21</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6">
-        <f>+C19</f>
-        <v>200</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="6">
-        <f>+C20/C21</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="6">
-        <f>SUM(C28:C29)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6">
-        <f>+C30</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="6">
-        <f>+C23</f>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="6">
-        <f>+C33*C34</f>
-        <v>154000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="6">
-        <f>+C28</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="1">
-        <f>+C20/11200</f>
-        <v>71.428571428571431</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="6">
-        <f>SUM(C42:C43)</f>
-        <v>271.42857142857144</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="6">
-        <f>+C44</f>
-        <v>271.42857142857144</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="6">
-        <f>+C34</f>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="6">
-        <f>+C46*C47</f>
-        <v>149285.71428571429</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="4">
-        <v>46599</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="6">
-        <v>103000</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="6">
-        <v>4000</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="6">
-        <f>0.6*36000</f>
-        <v>21600</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="6">
-        <f>0.4*36000</f>
-        <v>14400</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="6">
-        <v>950</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="6">
-        <v>1850</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="8">
-        <v>50</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="8">
-        <v>1100</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="8">
-        <v>2300</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="8">
-        <v>1650</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="6">
-        <f>SUM(C54:C56,C58,C60,)</f>
-        <v>131400</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="6">
-        <f>+C57+C59</f>
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="6">
-        <v>300000</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="6">
-        <v>240000</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="5">
-        <f>+C70/C69</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="6">
-        <f>+C67</f>
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="6">
-        <f>+C69</f>
-        <v>300000</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="12">
-        <f>+C73/C74</f>
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="6">
-        <f>+C66</f>
-        <v>131400</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="6">
-        <f>+C70*C75</f>
-        <v>12480</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="9">
-        <f>SUM(C76:C77)</f>
-        <v>143880</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C82" s="5">
-        <f>+C71</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="6">
-        <f>+C76</f>
-        <v>131400</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="1">
-        <f>+C82*C67</f>
-        <v>12480</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="9">
-        <f>SUM(C83:C84)</f>
-        <v>143880</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="6">
-        <f>+C85</f>
-        <v>143880</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="6">
-        <f>+C70</f>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="13">
-        <f>+C87/C88</f>
-        <v>0.59950000000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="4">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E94" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C95" s="1">
-        <v>50</v>
-      </c>
-      <c r="D95" s="6">
-        <f>+C95*$C$106</f>
-        <v>600000</v>
-      </c>
-      <c r="E95" s="1">
-        <v>-120000</v>
-      </c>
-      <c r="F95" s="6">
-        <f>SUM(D95:E95)</f>
-        <v>480000</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C96" s="1">
-        <v>200</v>
-      </c>
-      <c r="D96" s="6">
-        <f t="shared" ref="D96:D99" si="0">+C96*$C$106</f>
-        <v>2400000</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" ref="F96:F97" si="1">SUM(D96:E96)</f>
-        <v>2400000</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="1">
-        <v>40</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="0"/>
-        <v>480000</v>
-      </c>
-      <c r="E97" s="1">
-        <v>60000</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="1"/>
-        <v>540000</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C98" s="1">
-        <v>60</v>
-      </c>
-      <c r="D98" s="6">
-        <f t="shared" si="0"/>
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="10">
-        <v>20</v>
-      </c>
-      <c r="D99" s="8">
-        <f t="shared" si="0"/>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C100" s="1">
-        <f>SUM(C95:C99)</f>
-        <v>370</v>
-      </c>
-      <c r="D100" s="6">
-        <f>SUM(D95:D99)</f>
-        <v>4440000</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B103" s="4">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="1">
-        <v>12000</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D108" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D109" s="6">
-        <f>+C100</f>
-        <v>370</v>
-      </c>
-      <c r="E109" s="6">
-        <f>+D109*C105</f>
-        <v>740000</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" s="6">
-        <f>-C99</f>
-        <v>-20</v>
-      </c>
-      <c r="E110" s="6">
-        <f>+D110*C105</f>
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" s="6">
-        <f>SUM(D109:D110)</f>
-        <v>350</v>
-      </c>
-      <c r="E111" s="6">
-        <f>SUM(E109:E110)</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="6">
-        <f>+E95/C106</f>
-        <v>-10</v>
-      </c>
-      <c r="E112" s="6">
-        <f>+D112*C105</f>
-        <v>-20000</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="6">
-        <f>+E97/(C106*4/12)</f>
-        <v>15</v>
-      </c>
-      <c r="E113" s="6">
-        <f>+E97*(C105/4000)</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" s="6">
-        <f>SUM(D111:D113)</f>
-        <v>355</v>
-      </c>
-      <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="22">
-        <f>+D114*C105</f>
-        <v>710000</v>
-      </c>
-      <c r="E115" s="22">
-        <f>SUM(E109:E114)</f>
-        <v>1410000</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D117" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" s="23"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="6">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C122" s="6">
-        <f>-0.06*C121</f>
-        <v>-49.199999999999996</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="6">
-        <v>-215</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C124" s="9">
-        <f>SUM(C121:C123)</f>
-        <v>555.79999999999995</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F125" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F126" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E127" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E128" s="5">
-        <v>-1</v>
-      </c>
-      <c r="F128" s="5">
-        <v>-0.94</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D130" s="6">
-        <v>415</v>
-      </c>
-      <c r="E130" s="6">
-        <v>580</v>
-      </c>
-      <c r="F130" s="6">
-        <v>545</v>
-      </c>
-      <c r="G130" s="6">
-        <v>415</v>
-      </c>
-      <c r="H130" s="6">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" s="6">
-        <v>610</v>
-      </c>
-      <c r="D131" s="6">
-        <v>148</v>
-      </c>
-      <c r="E131" s="6">
-        <v>150</v>
-      </c>
-      <c r="F131" s="6">
-        <v>141</v>
-      </c>
-      <c r="G131" s="6">
-        <v>141</v>
-      </c>
-      <c r="H131" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="6">
-        <v>200</v>
-      </c>
-      <c r="D132" s="6">
-        <v>720</v>
-      </c>
-      <c r="E132" s="6">
-        <v>810</v>
-      </c>
-      <c r="F132" s="6">
-        <v>761</v>
-      </c>
-      <c r="G132" s="6">
-        <v>720</v>
-      </c>
-      <c r="H132" s="6">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="6">
-        <v>416</v>
-      </c>
-      <c r="D133" s="6">
-        <v>500</v>
-      </c>
-      <c r="E133" s="6">
-        <f>+C121</f>
-        <v>820</v>
-      </c>
-      <c r="F133" s="6">
-        <f>+C124</f>
-        <v>555.79999999999995</v>
-      </c>
-      <c r="G133" s="6">
-        <v>500</v>
-      </c>
-      <c r="H133" s="6">
-        <f>+C133*D133/1000</f>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134" s="6">
-        <v>508</v>
-      </c>
-      <c r="D134" s="6">
-        <v>930</v>
-      </c>
-      <c r="E134" s="6">
-        <v>1400</v>
-      </c>
-      <c r="F134" s="6">
-        <v>1316</v>
-      </c>
-      <c r="G134" s="6">
-        <v>930</v>
-      </c>
-      <c r="H134" s="6">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="9">
-        <f>SUM(H130:H134)</f>
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{316B2F69-1117-4AE1-988A-6A1051710F47}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Module 11 - Inventories.xlsx
+++ b/Module 11 - Inventories.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{95B8C057-F298-40C7-AFD0-1ECA6BF78C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2FC5A5E-AAE0-4854-AA07-1C5832B909A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="28800" windowHeight="14370" xr2:uid="{A41F7C7B-6B09-4814-BF57-AC2AC38DD49A}"/>
+    <workbookView xWindow="22470" yWindow="9015" windowWidth="12420" windowHeight="11385" firstSheet="5" activeTab="11" xr2:uid="{A41F7C7B-6B09-4814-BF57-AC2AC38DD49A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1922,7 +1922,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E791D557-50B8-4778-8D23-41E8C44257CE}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D2D80C-C5CE-4425-A797-71389C520915}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3634,7 +3634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32AE7B6-A816-491B-B274-BD83A733AAED}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4175,7 +4177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909F1FA-A156-444F-9C7A-CF37AA469AA2}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5326,8 +5330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC94F50-7407-4CEA-ACDF-E18E31F2F24E}">
   <dimension ref="B2:I1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5738,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EFD375-C2FD-4B8D-8062-1440A39F084D}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6480,8 +6484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90F300D-97E0-4900-8BAE-64B3D18BD483}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9054,8 +9058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD72A69B-8876-433E-BFE5-E5BE3E868F2D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9452,8 +9456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEA43B1-9891-4941-AEB3-DB3BAD78ED86}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9966,8 +9970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699999DD-2C4E-43CD-84EF-A24403F35DF4}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10161,8 +10165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68BFE2A-CA24-488B-9182-96EC08616877}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
